--- a/doc/11. 도메인 정의서/11. 도메인 정의서.xlsx
+++ b/doc/11. 도메인 정의서/11. 도메인 정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qkdlf\Project\front-end\movie\doc\11. 도메인 정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FEBC9A-010A-4AF2-B409-E66B00F2CC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44713EE-642A-4808-9947-568DB0B5C33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22044" windowHeight="13176" activeTab="4" xr2:uid="{2CD724CB-B3F2-47D8-8DA7-703D27234E65}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="151">
   <si>
     <t>속성명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -637,6 +637,10 @@
   </si>
   <si>
     <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runtime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4863,7 +4867,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5040,18 +5044,14 @@
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="12" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>107</v>
-      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
